--- a/Ascendancy/_ASCEND00.xlsx
+++ b/Ascendancy/_ASCEND00.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PlanetItems" sheetId="1" r:id="rId1"/>
     <sheet name="Gizmos" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Techs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Factory</t>
   </si>
@@ -391,13 +391,247 @@
   </si>
   <si>
     <t>Flags</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>PROS</t>
+  </si>
+  <si>
+    <t>MPOP</t>
+  </si>
+  <si>
+    <t>UPOP</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>RESREQ</t>
+  </si>
+  <si>
+    <t>FLAG</t>
+  </si>
+  <si>
+    <t>Orbital Structures</t>
+  </si>
+  <si>
+    <t>Interplanetary Exploration</t>
+  </si>
+  <si>
+    <t>Tonklin Diary</t>
+  </si>
+  <si>
+    <t>Spacetime Surfing</t>
+  </si>
+  <si>
+    <t>Superconductivity</t>
+  </si>
+  <si>
+    <t>Environmental Encapsulation</t>
+  </si>
+  <si>
+    <t>Xenobiology</t>
+  </si>
+  <si>
+    <t>Spectral Analysis</t>
+  </si>
+  <si>
+    <t>Advanced Interferometry</t>
+  </si>
+  <si>
+    <t>Power Conversion</t>
+  </si>
+  <si>
+    <t>Advanced Chemistry</t>
+  </si>
+  <si>
+    <t>Momentum Deconservation</t>
+  </si>
+  <si>
+    <t>Gravity Control</t>
+  </si>
+  <si>
+    <t>Molecular Explosives</t>
+  </si>
+  <si>
+    <t>Hyperlogic</t>
+  </si>
+  <si>
+    <t>Cloaking</t>
+  </si>
+  <si>
+    <t>Gravimetrics</t>
+  </si>
+  <si>
+    <t>Strong Force Weakening</t>
+  </si>
+  <si>
+    <t>Light Bending</t>
+  </si>
+  <si>
+    <t>Advanced Exploration</t>
+  </si>
+  <si>
+    <t>Diplomatics</t>
+  </si>
+  <si>
+    <t>Mass Phasing</t>
+  </si>
+  <si>
+    <t>Positron Guidance</t>
+  </si>
+  <si>
+    <t>Gravimetric Combustion</t>
+  </si>
+  <si>
+    <t>EM Field Coupling</t>
+  </si>
+  <si>
+    <t>Subatomics</t>
+  </si>
+  <si>
+    <t>Planetary Replenishment</t>
+  </si>
+  <si>
+    <t>Momentum Reflection</t>
+  </si>
+  <si>
+    <t>Hyperradiation</t>
+  </si>
+  <si>
+    <t>Plasmatics</t>
+  </si>
+  <si>
+    <t>Energy Redirection</t>
+  </si>
+  <si>
+    <t>Large Scale Construction</t>
+  </si>
+  <si>
+    <t>Level Logic</t>
+  </si>
+  <si>
+    <t>Star Lane Anatomy</t>
+  </si>
+  <si>
+    <t>Stasis Field Science</t>
+  </si>
+  <si>
+    <t>Coherent Photonics</t>
+  </si>
+  <si>
+    <t>Superstring Compression</t>
+  </si>
+  <si>
+    <t>Murgatroyd Hypothesis</t>
+  </si>
+  <si>
+    <t>Matter Duplication</t>
+  </si>
+  <si>
+    <t>Energy Focusing</t>
+  </si>
+  <si>
+    <t>Scientific Sorcery</t>
+  </si>
+  <si>
+    <t>Advanced Fun Techniques</t>
+  </si>
+  <si>
+    <t>Repulsion Beam Tech</t>
+  </si>
+  <si>
+    <t>Hyperwave Technology</t>
+  </si>
+  <si>
+    <t>Fergnatz's Last Theorem</t>
+  </si>
+  <si>
+    <t>Thought Analysis</t>
+  </si>
+  <si>
+    <t>Inertial Control</t>
+  </si>
+  <si>
+    <t>Nanoenergons</t>
+  </si>
+  <si>
+    <t>Hypergeometry</t>
+  </si>
+  <si>
+    <t>Teleinfiltration</t>
+  </si>
+  <si>
+    <t>Hyperdrive Technology</t>
+  </si>
+  <si>
+    <t>Microbotics</t>
+  </si>
+  <si>
+    <t>Ecosphere Phase Control</t>
+  </si>
+  <si>
+    <t>Hyperwave Emission Control</t>
+  </si>
+  <si>
+    <t>Nanopropulsion</t>
+  </si>
+  <si>
+    <t>Nanodeflection</t>
+  </si>
+  <si>
+    <t>Nanofocusing</t>
+  </si>
+  <si>
+    <t>Doom Mechanization</t>
+  </si>
+  <si>
+    <t>Snooping</t>
+  </si>
+  <si>
+    <t>Megagraph Theory</t>
+  </si>
+  <si>
+    <t>Self Modifying Structures</t>
+  </si>
+  <si>
+    <t>Advanced Planetary Armaments</t>
+  </si>
+  <si>
+    <t>Accel Energy Replenishment</t>
+  </si>
+  <si>
+    <t>Gravity Flow Control</t>
+  </si>
+  <si>
+    <t>Action At A Distance</t>
+  </si>
+  <si>
+    <t>Illusory Machinations</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Preq</t>
+  </si>
+  <si>
+    <t>RealCost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -409,6 +643,21 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
@@ -434,15 +683,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -744,10 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -755,64 +1008,54 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="4" customWidth="1"/>
+    <col min="4" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="str">
-        <f>DEC2HEX(A1,2)</f>
-        <v>00</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>30</v>
-      </c>
-      <c r="J1">
-        <v>255</v>
-      </c>
-      <c r="K1">
-        <v>255</v>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B39" si="0">DEC2HEX(A2,2)</f>
-        <v>01</v>
+        <f>DEC2HEX(A2,2)</f>
+        <v>00</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -832,24 +1075,24 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B40" si="0">DEC2HEX(A3,2)</f>
+        <v>01</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -857,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>255</v>
@@ -868,35 +1111,35 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="K4">
         <v>255</v>
@@ -904,35 +1147,35 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>04</v>
+        <v>03</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="J5">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>255</v>
@@ -940,20 +1183,20 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -965,73 +1208,73 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>06</v>
+        <v>05</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1040,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>255</v>
@@ -1051,24 +1294,24 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>08</v>
+        <v>07</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1076,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>255</v>
@@ -1087,23 +1330,23 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>09</v>
+        <v>08</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1112,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="J10">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="K10">
         <v>255</v>
@@ -1123,23 +1366,23 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>0A</v>
+        <v>09</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1151,7 +1394,7 @@
         <v>80</v>
       </c>
       <c r="J11">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>255</v>
@@ -1159,20 +1402,20 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>0B</v>
+        <v>0A</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1184,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>255</v>
@@ -1195,14 +1438,14 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>0C</v>
+        <v>0B</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1220,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="J13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K13">
         <v>255</v>
@@ -1231,14 +1474,14 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>0D</v>
+        <v>0C</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1259,7 +1502,7 @@
         <v>200</v>
       </c>
       <c r="J14">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>255</v>
@@ -1267,14 +1510,14 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>0E</v>
+        <v>0D</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1292,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J15">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K15">
         <v>255</v>
@@ -1303,14 +1546,14 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>0F</v>
+        <v>0E</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1331,7 +1574,7 @@
         <v>250</v>
       </c>
       <c r="J16">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="K16">
         <v>255</v>
@@ -1339,14 +1582,14 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0F</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1364,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K17">
         <v>255</v>
@@ -1375,14 +1618,14 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1400,28 +1643,25 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
         <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1439,13 +1679,13 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>255</v>
@@ -1453,14 +1693,14 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1478,10 +1718,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="J20">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1492,14 +1732,14 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1511,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="J21">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>255</v>
@@ -1531,14 +1771,14 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1550,40 +1790,37 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="J22">
         <v>255</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22">
         <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1598,28 +1835,34 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
         <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1634,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>255</v>
@@ -1645,17 +1888,17 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1670,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="J25">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>255</v>
@@ -1681,17 +1924,17 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1706,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="J26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K26">
         <v>255</v>
@@ -1717,14 +1960,14 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>1A</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1742,28 +1985,25 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
         <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>1B</v>
+        <v>1A</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1781,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J28">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -1795,14 +2035,14 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>1C</v>
+        <v>1B</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1820,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J29">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>255</v>
@@ -1834,14 +2074,14 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>1D</v>
+        <v>1C</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1859,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J30">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1873,14 +2113,14 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>1E</v>
+        <v>1D</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1898,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J31">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1912,14 +2152,14 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>1F</v>
+        <v>1E</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1934,55 +2174,52 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="J32">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>20</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>254</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -1996,14 +2233,14 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2024,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2038,14 +2275,14 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2066,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2080,14 +2317,14 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2102,31 +2339,34 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
         <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2144,10 +2384,10 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2158,14 +2398,14 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2183,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="J38">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>255</v>
@@ -2197,45 +2437,85 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>200</v>
+      </c>
+      <c r="J39">
+        <v>62</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>50</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>6</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2243,9 +2523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2284,13 +2564,13 @@
       <c r="L1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -5807,12 +6087,1967 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="9" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <f>DEC2HEX(A2,2)</f>
+        <v>00</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6">
+        <f>MIN(65000,IF(A2&gt;10,E2*2*(A2-10),E2))</f>
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">DEC2HEX(A3,2)</f>
+        <v>01</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6">
+        <f>MIN(65000,IF(A3&gt;10,E3*2*(A3-10),E3))</f>
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="6">
+        <f>MIN(65000,IF(A4&gt;10,E4*2*(A4-10),E4))</f>
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5" s="6">
+        <f>MIN(65000,IF(A5&gt;10,E5*2*(A5-10),E5))</f>
+        <v>90</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6">
+        <f>MIN(65000,IF(A6&gt;10,E6*2*(A6-10),E6))</f>
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>05</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6">
+        <f>MIN(65000,IF(A7&gt;10,E7*2*(A7-10),E7))</f>
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>06</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8" s="6">
+        <f>MIN(65000,IF(A8&gt;10,E8*2*(A8-10),E8))</f>
+        <v>90</v>
+      </c>
+      <c r="G8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
+      <c r="F9" s="6">
+        <f>MIN(65000,IF(A9&gt;10,E9*2*(A9-10),E9))</f>
+        <v>120</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10" s="6">
+        <f>MIN(65000,IF(A10&gt;10,E10*2*(A10-10),E10))</f>
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <f>MIN(65000,IF(A11&gt;10,E11*2*(A11-10),E11))</f>
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>0A</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="6">
+        <f>MIN(65000,IF(A12&gt;10,E12*2*(A12-10),E12))</f>
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>0B</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>140</v>
+      </c>
+      <c r="F13" s="6">
+        <f>MIN(65000,IF(A13&gt;10,E13*2*(A13-10),E13))</f>
+        <v>280</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>0C</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>140</v>
+      </c>
+      <c r="F14" s="6">
+        <f>MIN(65000,IF(A14&gt;10,E14*2*(A14-10),E14))</f>
+        <v>560</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15" s="6">
+        <f>MIN(65000,IF(A15&gt;10,E15*2*(A15-10),E15))</f>
+        <v>720</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>0E</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>140</v>
+      </c>
+      <c r="F16" s="6">
+        <f>MIN(65000,IF(A16&gt;10,E16*2*(A16-10),E16))</f>
+        <v>1120</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>0F</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>180</v>
+      </c>
+      <c r="F17" s="6">
+        <f>MIN(65000,IF(A17&gt;10,E17*2*(A17-10),E17))</f>
+        <v>1800</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>110</v>
+      </c>
+      <c r="F18" s="6">
+        <f>MIN(65000,IF(A18&gt;10,E18*2*(A18-10),E18))</f>
+        <v>1320</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19" s="6">
+        <f>MIN(65000,IF(A19&gt;10,E19*2*(A19-10),E19))</f>
+        <v>980</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>160</v>
+      </c>
+      <c r="F20" s="6">
+        <f>MIN(65000,IF(A20&gt;10,E20*2*(A20-10),E20))</f>
+        <v>2560</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>230</v>
+      </c>
+      <c r="F21" s="6">
+        <f>MIN(65000,IF(A21&gt;10,E21*2*(A21-10),E21))</f>
+        <v>4140</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" s="6">
+        <f>MIN(65000,IF(A22&gt;10,E22*2*(A22-10),E22))</f>
+        <v>2000</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23" s="6">
+        <f>MIN(65000,IF(A23&gt;10,E23*2*(A23-10),E23))</f>
+        <v>2200</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24" s="6">
+        <f>MIN(65000,IF(A24&gt;10,E24*2*(A24-10),E24))</f>
+        <v>2400</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25" s="6">
+        <f>MIN(65000,IF(A25&gt;10,E25*2*(A25-10),E25))</f>
+        <v>2600</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>150</v>
+      </c>
+      <c r="F26" s="6">
+        <f>MIN(65000,IF(A26&gt;10,E26*2*(A26-10),E26))</f>
+        <v>4200</v>
+      </c>
+      <c r="G26">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>110</v>
+      </c>
+      <c r="F27" s="6">
+        <f>MIN(65000,IF(A27&gt;10,E27*2*(A27-10),E27))</f>
+        <v>3300</v>
+      </c>
+      <c r="G27">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>80</v>
+      </c>
+      <c r="F28" s="6">
+        <f>MIN(65000,IF(A28&gt;10,E28*2*(A28-10),E28))</f>
+        <v>2560</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>23</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>1B</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>130</v>
+      </c>
+      <c r="F29" s="6">
+        <f>MIN(65000,IF(A29&gt;10,E29*2*(A29-10),E29))</f>
+        <v>4420</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>140</v>
+      </c>
+      <c r="F30" s="6">
+        <f>MIN(65000,IF(A30&gt;10,E30*2*(A30-10),E30))</f>
+        <v>5040</v>
+      </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>1D</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>150</v>
+      </c>
+      <c r="F31" s="6">
+        <f>MIN(65000,IF(A31&gt;10,E31*2*(A31-10),E31))</f>
+        <v>5700</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>1E</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>110</v>
+      </c>
+      <c r="F32" s="6">
+        <f>MIN(65000,IF(A32&gt;10,E32*2*(A32-10),E32))</f>
+        <v>4400</v>
+      </c>
+      <c r="G32">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33" s="6">
+        <f>MIN(65000,IF(A33&gt;10,E33*2*(A33-10),E33))</f>
+        <v>4200</v>
+      </c>
+      <c r="G33">
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>75</v>
+      </c>
+      <c r="F34" s="6">
+        <f>MIN(65000,IF(A34&gt;10,E34*2*(A34-10),E34))</f>
+        <v>3300</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>75</v>
+      </c>
+      <c r="F35" s="6">
+        <f>MIN(65000,IF(A35&gt;10,E35*2*(A35-10),E35))</f>
+        <v>3450</v>
+      </c>
+      <c r="G35">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>75</v>
+      </c>
+      <c r="F36" s="6">
+        <f>MIN(65000,IF(A36&gt;10,E36*2*(A36-10),E36))</f>
+        <v>3600</v>
+      </c>
+      <c r="G36">
+        <v>28</v>
+      </c>
+      <c r="H36">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>140</v>
+      </c>
+      <c r="F37" s="6">
+        <f>MIN(65000,IF(A37&gt;10,E37*2*(A37-10),E37))</f>
+        <v>7000</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>70</v>
+      </c>
+      <c r="F38" s="6">
+        <f>MIN(65000,IF(A38&gt;10,E38*2*(A38-10),E38))</f>
+        <v>3640</v>
+      </c>
+      <c r="G38">
+        <v>29</v>
+      </c>
+      <c r="H38">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>110</v>
+      </c>
+      <c r="F39" s="6">
+        <f>MIN(65000,IF(A39&gt;10,E39*2*(A39-10),E39))</f>
+        <v>5940</v>
+      </c>
+      <c r="G39">
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <v>36</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>90</v>
+      </c>
+      <c r="F40" s="6">
+        <f>MIN(65000,IF(A40&gt;10,E40*2*(A40-10),E40))</f>
+        <v>5040</v>
+      </c>
+      <c r="G40">
+        <v>27</v>
+      </c>
+      <c r="H40">
+        <v>36</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>90</v>
+      </c>
+      <c r="F41" s="6">
+        <f>MIN(65000,IF(A41&gt;10,E41*2*(A41-10),E41))</f>
+        <v>5220</v>
+      </c>
+      <c r="G41">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>37</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>90</v>
+      </c>
+      <c r="F42" s="6">
+        <f>MIN(65000,IF(A42&gt;10,E42*2*(A42-10),E42))</f>
+        <v>5400</v>
+      </c>
+      <c r="G42">
+        <v>37</v>
+      </c>
+      <c r="H42">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>90</v>
+      </c>
+      <c r="F43" s="6">
+        <f>MIN(65000,IF(A43&gt;10,E43*2*(A43-10),E43))</f>
+        <v>5580</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>110</v>
+      </c>
+      <c r="F44" s="6">
+        <f>MIN(65000,IF(A44&gt;10,E44*2*(A44-10),E44))</f>
+        <v>7040</v>
+      </c>
+      <c r="G44">
+        <v>39</v>
+      </c>
+      <c r="H44">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>2B</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>110</v>
+      </c>
+      <c r="F45" s="6">
+        <f>MIN(65000,IF(A45&gt;10,E45*2*(A45-10),E45))</f>
+        <v>7260</v>
+      </c>
+      <c r="G45">
+        <v>28</v>
+      </c>
+      <c r="H45">
+        <v>39</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>2C</v>
+      </c>
+      <c r="C46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>160</v>
+      </c>
+      <c r="F46" s="6">
+        <f>MIN(65000,IF(A46&gt;10,E46*2*(A46-10),E46))</f>
+        <v>10880</v>
+      </c>
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>2D</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>110</v>
+      </c>
+      <c r="F47" s="6">
+        <f>MIN(65000,IF(A47&gt;10,E47*2*(A47-10),E47))</f>
+        <v>7700</v>
+      </c>
+      <c r="G47">
+        <v>32</v>
+      </c>
+      <c r="H47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>2E</v>
+      </c>
+      <c r="C48" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>140</v>
+      </c>
+      <c r="F48" s="6">
+        <f>MIN(65000,IF(A48&gt;10,E48*2*(A48-10),E48))</f>
+        <v>10080</v>
+      </c>
+      <c r="G48">
+        <v>33</v>
+      </c>
+      <c r="H48">
+        <v>38</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>2F</v>
+      </c>
+      <c r="C49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>170</v>
+      </c>
+      <c r="F49" s="6">
+        <f>MIN(65000,IF(A49&gt;10,E49*2*(A49-10),E49))</f>
+        <v>12580</v>
+      </c>
+      <c r="G49">
+        <v>43</v>
+      </c>
+      <c r="H49">
+        <v>44</v>
+      </c>
+      <c r="I49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>170</v>
+      </c>
+      <c r="F50" s="6">
+        <f>MIN(65000,IF(A50&gt;10,E50*2*(A50-10),E50))</f>
+        <v>12920</v>
+      </c>
+      <c r="G50">
+        <v>44</v>
+      </c>
+      <c r="H50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>110</v>
+      </c>
+      <c r="F51" s="6">
+        <f>MIN(65000,IF(A51&gt;10,E51*2*(A51-10),E51))</f>
+        <v>8580</v>
+      </c>
+      <c r="G51">
+        <v>43</v>
+      </c>
+      <c r="H51">
+        <v>45</v>
+      </c>
+      <c r="I51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>110</v>
+      </c>
+      <c r="F52" s="6">
+        <f>MIN(65000,IF(A52&gt;10,E52*2*(A52-10),E52))</f>
+        <v>8800</v>
+      </c>
+      <c r="G52">
+        <v>33</v>
+      </c>
+      <c r="H52">
+        <v>49</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>110</v>
+      </c>
+      <c r="F53" s="6">
+        <f>MIN(65000,IF(A53&gt;10,E53*2*(A53-10),E53))</f>
+        <v>9020</v>
+      </c>
+      <c r="G53">
+        <v>38</v>
+      </c>
+      <c r="H53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>110</v>
+      </c>
+      <c r="F54" s="6">
+        <f>MIN(65000,IF(A54&gt;10,E54*2*(A54-10),E54))</f>
+        <v>9240</v>
+      </c>
+      <c r="G54">
+        <v>26</v>
+      </c>
+      <c r="H54">
+        <v>48</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>110</v>
+      </c>
+      <c r="F55" s="6">
+        <f>MIN(65000,IF(A55&gt;10,E55*2*(A55-10),E55))</f>
+        <v>9460</v>
+      </c>
+      <c r="G55">
+        <v>43</v>
+      </c>
+      <c r="H55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="F56" s="6">
+        <f>MIN(65000,IF(A56&gt;10,E56*2*(A56-10),E56))</f>
+        <v>17600</v>
+      </c>
+      <c r="G56">
+        <v>47</v>
+      </c>
+      <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>240</v>
+      </c>
+      <c r="F57" s="6">
+        <f>MIN(65000,IF(A57&gt;10,E57*2*(A57-10),E57))</f>
+        <v>21600</v>
+      </c>
+      <c r="G57">
+        <v>46</v>
+      </c>
+      <c r="H57">
+        <v>56</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>240</v>
+      </c>
+      <c r="F58" s="6">
+        <f>MIN(65000,IF(A58&gt;10,E58*2*(A58-10),E58))</f>
+        <v>22080</v>
+      </c>
+      <c r="G58">
+        <v>47</v>
+      </c>
+      <c r="H58">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>400</v>
+      </c>
+      <c r="F59" s="6">
+        <f>MIN(65000,IF(A59&gt;10,E59*2*(A59-10),E59))</f>
+        <v>37600</v>
+      </c>
+      <c r="G59">
+        <v>49</v>
+      </c>
+      <c r="H59">
+        <v>53</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>3A</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>120</v>
+      </c>
+      <c r="F60" s="6">
+        <f>MIN(65000,IF(A60&gt;10,E60*2*(A60-10),E60))</f>
+        <v>11520</v>
+      </c>
+      <c r="G60">
+        <v>45</v>
+      </c>
+      <c r="H60">
+        <v>53</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>3B</v>
+      </c>
+      <c r="C61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>120</v>
+      </c>
+      <c r="F61" s="6">
+        <f>MIN(65000,IF(A61&gt;10,E61*2*(A61-10),E61))</f>
+        <v>11760</v>
+      </c>
+      <c r="G61">
+        <v>44</v>
+      </c>
+      <c r="H61">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>3C</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>120</v>
+      </c>
+      <c r="F62" s="6">
+        <f>MIN(65000,IF(A62&gt;10,E62*2*(A62-10),E62))</f>
+        <v>12000</v>
+      </c>
+      <c r="G62">
+        <v>51</v>
+      </c>
+      <c r="H62">
+        <v>56</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>3D</v>
+      </c>
+      <c r="C63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>120</v>
+      </c>
+      <c r="F63" s="6">
+        <f>MIN(65000,IF(A63&gt;10,E63*2*(A63-10),E63))</f>
+        <v>12240</v>
+      </c>
+      <c r="G63">
+        <v>31</v>
+      </c>
+      <c r="H63">
+        <v>35</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>3E</v>
+      </c>
+      <c r="C64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>120</v>
+      </c>
+      <c r="F64" s="6">
+        <f>MIN(65000,IF(A64&gt;10,E64*2*(A64-10),E64))</f>
+        <v>12480</v>
+      </c>
+      <c r="G64">
+        <v>54</v>
+      </c>
+      <c r="H64">
+        <v>59</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>3F</v>
+      </c>
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>120</v>
+      </c>
+      <c r="F65" s="6">
+        <f>MIN(65000,IF(A65&gt;10,E65*2*(A65-10),E65))</f>
+        <v>12720</v>
+      </c>
+      <c r="G65">
+        <v>54</v>
+      </c>
+      <c r="H65">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>120</v>
+      </c>
+      <c r="F66" s="6">
+        <f>MIN(65000,IF(A66&gt;10,E66*2*(A66-10),E66))</f>
+        <v>12960</v>
+      </c>
+      <c r="G66">
+        <v>49</v>
+      </c>
+      <c r="H66">
+        <v>59</v>
+      </c>
+      <c r="I66">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67" si="1">DEC2HEX(A67,2)</f>
+        <v>41</v>
+      </c>
+      <c r="C67" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>300</v>
+      </c>
+      <c r="F67" s="6">
+        <f>MIN(65000,IF(A67&gt;10,E67*2*(A67-10),E67))</f>
+        <v>33000</v>
+      </c>
+      <c r="G67">
+        <v>56</v>
+      </c>
+      <c r="H67">
+        <v>62</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ascendancy/_ASCEND00.xlsx
+++ b/Ascendancy/_ASCEND00.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PlanetItems" sheetId="1" r:id="rId1"/>
     <sheet name="Gizmos" sheetId="2" r:id="rId2"/>
     <sheet name="Techs" sheetId="3" r:id="rId3"/>
+    <sheet name="GwShareTxt" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Factory</t>
   </si>
@@ -625,6 +626,141 @@
   </si>
   <si>
     <t>RealCost</t>
+  </si>
+  <si>
+    <t>data\smrace00.shp</t>
+  </si>
+  <si>
+    <t>data\smrace01.shp</t>
+  </si>
+  <si>
+    <t>data\smrace02.shp</t>
+  </si>
+  <si>
+    <t>data\smrace03.shp</t>
+  </si>
+  <si>
+    <t>data\smrace04.shp</t>
+  </si>
+  <si>
+    <t>data\smrace05.shp</t>
+  </si>
+  <si>
+    <t>data\smrace06.shp</t>
+  </si>
+  <si>
+    <t>data\lgrace00.shp</t>
+  </si>
+  <si>
+    <t>data\lgrace01.shp</t>
+  </si>
+  <si>
+    <t>data\lgrace02.shp</t>
+  </si>
+  <si>
+    <t>data\lgrace03.shp</t>
+  </si>
+  <si>
+    <t>data\lgrace04.shp</t>
+  </si>
+  <si>
+    <t>data\lgrace05.shp</t>
+  </si>
+  <si>
+    <t>data\lgrace06.shp</t>
+  </si>
+  <si>
+    <t>data\smship00.shp</t>
+  </si>
+  <si>
+    <t>data\smship01.shp</t>
+  </si>
+  <si>
+    <t>data\smship02.shp</t>
+  </si>
+  <si>
+    <t>data\smship03.shp</t>
+  </si>
+  <si>
+    <t>data\smship04.shp</t>
+  </si>
+  <si>
+    <t>data\smship05.shp</t>
+  </si>
+  <si>
+    <t>data\smship06.shp</t>
+  </si>
+  <si>
+    <t>data\dkship00.shp</t>
+  </si>
+  <si>
+    <t>data\dkship01.shp</t>
+  </si>
+  <si>
+    <t>data\dkship02.shp</t>
+  </si>
+  <si>
+    <t>data\dkship03.shp</t>
+  </si>
+  <si>
+    <t>data\dkship04.shp</t>
+  </si>
+  <si>
+    <t>data\dkship05.shp</t>
+  </si>
+  <si>
+    <t>data\dkship06.shp</t>
+  </si>
+  <si>
+    <t>data\gizmos.shp</t>
+  </si>
+  <si>
+    <t>data\planets.shp</t>
+  </si>
+  <si>
+    <t>data\planitem.shp</t>
+  </si>
+  <si>
+    <t>data\restree.shp</t>
+  </si>
+  <si>
+    <t>data\raceflag.shp</t>
+  </si>
+  <si>
+    <t>data\racering.shp</t>
+  </si>
+  <si>
+    <t>data\smhome.shp</t>
+  </si>
+  <si>
+    <t>data\shipicon.shp</t>
+  </si>
+  <si>
+    <t>data\listbox.shp</t>
+  </si>
+  <si>
+    <t>data\help.shp</t>
+  </si>
+  <si>
+    <t>data\planres.shp</t>
+  </si>
+  <si>
+    <t>data\planind.shp</t>
+  </si>
+  <si>
+    <t>data\planpro.shp</t>
+  </si>
+  <si>
+    <t>data\14intel.shp</t>
+  </si>
+  <si>
+    <t>data\smraces.shp</t>
+  </si>
+  <si>
+    <t>data\9endgame.shp</t>
+  </si>
+  <si>
+    <t>data\17np.shp</t>
   </si>
 </sst>
 </file>
@@ -690,11 +826,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2564,13 +2700,13 @@
       <c r="L1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -6089,7 +6225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -6100,7 +6236,7 @@
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
     <col min="7" max="9" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6111,14 +6247,14 @@
       <c r="E1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -6137,8 +6273,8 @@
       <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="6">
-        <f>MIN(65000,IF(A2&gt;10,E2*2*(A2-10),E2))</f>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F33" si="0">MIN(65000,IF(A2&gt;10,E2*2*(A2-10),E2))</f>
         <v>50</v>
       </c>
       <c r="G2">
@@ -6150,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">DEC2HEX(A3,2)</f>
+        <f t="shared" ref="B3:B66" si="1">DEC2HEX(A3,2)</f>
         <v>01</v>
       </c>
       <c r="C3" t="s">
@@ -6162,8 +6298,8 @@
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" s="6">
-        <f>MIN(65000,IF(A3&gt;10,E3*2*(A3-10),E3))</f>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G3">
@@ -6178,7 +6314,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="C4" t="s">
@@ -6190,8 +6326,8 @@
       <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="6">
-        <f>MIN(65000,IF(A4&gt;10,E4*2*(A4-10),E4))</f>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G4">
@@ -6203,7 +6339,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>03</v>
       </c>
       <c r="C5" t="s">
@@ -6215,8 +6351,8 @@
       <c r="E5">
         <v>90</v>
       </c>
-      <c r="F5" s="6">
-        <f>MIN(65000,IF(A5&gt;10,E5*2*(A5-10),E5))</f>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G5">
@@ -6234,7 +6370,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="C6" t="s">
@@ -6246,8 +6382,8 @@
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="6">
-        <f>MIN(65000,IF(A6&gt;10,E6*2*(A6-10),E6))</f>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G6">
@@ -6262,7 +6398,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="C7" t="s">
@@ -6274,8 +6410,8 @@
       <c r="E7">
         <v>50</v>
       </c>
-      <c r="F7" s="6">
-        <f>MIN(65000,IF(A7&gt;10,E7*2*(A7-10),E7))</f>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G7">
@@ -6290,7 +6426,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>06</v>
       </c>
       <c r="C8" t="s">
@@ -6302,8 +6438,8 @@
       <c r="E8">
         <v>90</v>
       </c>
-      <c r="F8" s="6">
-        <f>MIN(65000,IF(A8&gt;10,E8*2*(A8-10),E8))</f>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G8">
@@ -6315,7 +6451,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="C9" t="s">
@@ -6327,8 +6463,8 @@
       <c r="E9">
         <v>120</v>
       </c>
-      <c r="F9" s="6">
-        <f>MIN(65000,IF(A9&gt;10,E9*2*(A9-10),E9))</f>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="G9">
@@ -6343,7 +6479,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>08</v>
       </c>
       <c r="C10" t="s">
@@ -6355,8 +6491,8 @@
       <c r="E10">
         <v>90</v>
       </c>
-      <c r="F10" s="6">
-        <f>MIN(65000,IF(A10&gt;10,E10*2*(A10-10),E10))</f>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G10">
@@ -6371,7 +6507,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>09</v>
       </c>
       <c r="C11" t="s">
@@ -6383,8 +6519,8 @@
       <c r="E11">
         <v>100</v>
       </c>
-      <c r="F11" s="6">
-        <f>MIN(65000,IF(A11&gt;10,E11*2*(A11-10),E11))</f>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G11">
@@ -6399,7 +6535,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0A</v>
       </c>
       <c r="C12" t="s">
@@ -6411,8 +6547,8 @@
       <c r="E12">
         <v>100</v>
       </c>
-      <c r="F12" s="6">
-        <f>MIN(65000,IF(A12&gt;10,E12*2*(A12-10),E12))</f>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G12">
@@ -6427,7 +6563,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0B</v>
       </c>
       <c r="C13" t="s">
@@ -6439,8 +6575,8 @@
       <c r="E13">
         <v>140</v>
       </c>
-      <c r="F13" s="6">
-        <f>MIN(65000,IF(A13&gt;10,E13*2*(A13-10),E13))</f>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="G13">
@@ -6455,7 +6591,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0C</v>
       </c>
       <c r="C14" t="s">
@@ -6467,8 +6603,8 @@
       <c r="E14">
         <v>140</v>
       </c>
-      <c r="F14" s="6">
-        <f>MIN(65000,IF(A14&gt;10,E14*2*(A14-10),E14))</f>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
       <c r="G14">
@@ -6483,7 +6619,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0D</v>
       </c>
       <c r="C15" t="s">
@@ -6495,8 +6631,8 @@
       <c r="E15">
         <v>120</v>
       </c>
-      <c r="F15" s="6">
-        <f>MIN(65000,IF(A15&gt;10,E15*2*(A15-10),E15))</f>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
         <v>720</v>
       </c>
       <c r="G15">
@@ -6514,7 +6650,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0E</v>
       </c>
       <c r="C16" t="s">
@@ -6526,8 +6662,8 @@
       <c r="E16">
         <v>140</v>
       </c>
-      <c r="F16" s="6">
-        <f>MIN(65000,IF(A16&gt;10,E16*2*(A16-10),E16))</f>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
         <v>1120</v>
       </c>
       <c r="G16">
@@ -6545,7 +6681,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0F</v>
       </c>
       <c r="C17" t="s">
@@ -6557,8 +6693,8 @@
       <c r="E17">
         <v>180</v>
       </c>
-      <c r="F17" s="6">
-        <f>MIN(65000,IF(A17&gt;10,E17*2*(A17-10),E17))</f>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="G17">
@@ -6573,7 +6709,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C18" t="s">
@@ -6585,8 +6721,8 @@
       <c r="E18">
         <v>110</v>
       </c>
-      <c r="F18" s="6">
-        <f>MIN(65000,IF(A18&gt;10,E18*2*(A18-10),E18))</f>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
         <v>1320</v>
       </c>
       <c r="G18">
@@ -6601,7 +6737,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C19" t="s">
@@ -6613,8 +6749,8 @@
       <c r="E19">
         <v>70</v>
       </c>
-      <c r="F19" s="6">
-        <f>MIN(65000,IF(A19&gt;10,E19*2*(A19-10),E19))</f>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
         <v>980</v>
       </c>
       <c r="G19">
@@ -6629,7 +6765,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C20" t="s">
@@ -6641,8 +6777,8 @@
       <c r="E20">
         <v>160</v>
       </c>
-      <c r="F20" s="6">
-        <f>MIN(65000,IF(A20&gt;10,E20*2*(A20-10),E20))</f>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
         <v>2560</v>
       </c>
       <c r="G20">
@@ -6657,7 +6793,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C21" t="s">
@@ -6669,8 +6805,8 @@
       <c r="E21">
         <v>230</v>
       </c>
-      <c r="F21" s="6">
-        <f>MIN(65000,IF(A21&gt;10,E21*2*(A21-10),E21))</f>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
         <v>4140</v>
       </c>
       <c r="G21">
@@ -6688,7 +6824,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C22" t="s">
@@ -6700,8 +6836,8 @@
       <c r="E22">
         <v>100</v>
       </c>
-      <c r="F22" s="6">
-        <f>MIN(65000,IF(A22&gt;10,E22*2*(A22-10),E22))</f>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G22">
@@ -6716,7 +6852,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C23" t="s">
@@ -6728,8 +6864,8 @@
       <c r="E23">
         <v>100</v>
       </c>
-      <c r="F23" s="6">
-        <f>MIN(65000,IF(A23&gt;10,E23*2*(A23-10),E23))</f>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="G23">
@@ -6744,7 +6880,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C24" t="s">
@@ -6756,8 +6892,8 @@
       <c r="E24">
         <v>100</v>
       </c>
-      <c r="F24" s="6">
-        <f>MIN(65000,IF(A24&gt;10,E24*2*(A24-10),E24))</f>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="G24">
@@ -6772,7 +6908,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C25" t="s">
@@ -6784,8 +6920,8 @@
       <c r="E25">
         <v>100</v>
       </c>
-      <c r="F25" s="6">
-        <f>MIN(65000,IF(A25&gt;10,E25*2*(A25-10),E25))</f>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
         <v>2600</v>
       </c>
       <c r="G25">
@@ -6803,7 +6939,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C26" t="s">
@@ -6815,8 +6951,8 @@
       <c r="E26">
         <v>150</v>
       </c>
-      <c r="F26" s="6">
-        <f>MIN(65000,IF(A26&gt;10,E26*2*(A26-10),E26))</f>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
         <v>4200</v>
       </c>
       <c r="G26">
@@ -6831,7 +6967,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C27" t="s">
@@ -6843,8 +6979,8 @@
       <c r="E27">
         <v>110</v>
       </c>
-      <c r="F27" s="6">
-        <f>MIN(65000,IF(A27&gt;10,E27*2*(A27-10),E27))</f>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
         <v>3300</v>
       </c>
       <c r="G27">
@@ -6859,7 +6995,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1A</v>
       </c>
       <c r="C28" t="s">
@@ -6871,8 +7007,8 @@
       <c r="E28">
         <v>80</v>
       </c>
-      <c r="F28" s="6">
-        <f>MIN(65000,IF(A28&gt;10,E28*2*(A28-10),E28))</f>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
         <v>2560</v>
       </c>
       <c r="G28">
@@ -6890,7 +7026,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1B</v>
       </c>
       <c r="C29" t="s">
@@ -6902,8 +7038,8 @@
       <c r="E29">
         <v>130</v>
       </c>
-      <c r="F29" s="6">
-        <f>MIN(65000,IF(A29&gt;10,E29*2*(A29-10),E29))</f>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
         <v>4420</v>
       </c>
       <c r="G29">
@@ -6921,7 +7057,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1C</v>
       </c>
       <c r="C30" t="s">
@@ -6933,8 +7069,8 @@
       <c r="E30">
         <v>140</v>
       </c>
-      <c r="F30" s="6">
-        <f>MIN(65000,IF(A30&gt;10,E30*2*(A30-10),E30))</f>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
         <v>5040</v>
       </c>
       <c r="G30">
@@ -6952,7 +7088,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1D</v>
       </c>
       <c r="C31" t="s">
@@ -6964,8 +7100,8 @@
       <c r="E31">
         <v>150</v>
       </c>
-      <c r="F31" s="6">
-        <f>MIN(65000,IF(A31&gt;10,E31*2*(A31-10),E31))</f>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
         <v>5700</v>
       </c>
       <c r="G31">
@@ -6980,7 +7116,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E</v>
       </c>
       <c r="C32" t="s">
@@ -6992,8 +7128,8 @@
       <c r="E32">
         <v>110</v>
       </c>
-      <c r="F32" s="6">
-        <f>MIN(65000,IF(A32&gt;10,E32*2*(A32-10),E32))</f>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
         <v>4400</v>
       </c>
       <c r="G32">
@@ -7008,7 +7144,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1F</v>
       </c>
       <c r="C33" t="s">
@@ -7020,8 +7156,8 @@
       <c r="E33">
         <v>100</v>
       </c>
-      <c r="F33" s="6">
-        <f>MIN(65000,IF(A33&gt;10,E33*2*(A33-10),E33))</f>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
         <v>4200</v>
       </c>
       <c r="G33">
@@ -7039,7 +7175,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C34" t="s">
@@ -7051,8 +7187,8 @@
       <c r="E34">
         <v>75</v>
       </c>
-      <c r="F34" s="6">
-        <f>MIN(65000,IF(A34&gt;10,E34*2*(A34-10),E34))</f>
+      <c r="F34" s="5">
+        <f t="shared" ref="F34:F65" si="2">MIN(65000,IF(A34&gt;10,E34*2*(A34-10),E34))</f>
         <v>3300</v>
       </c>
       <c r="G34">
@@ -7067,7 +7203,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C35" t="s">
@@ -7079,8 +7215,8 @@
       <c r="E35">
         <v>75</v>
       </c>
-      <c r="F35" s="6">
-        <f>MIN(65000,IF(A35&gt;10,E35*2*(A35-10),E35))</f>
+      <c r="F35" s="5">
+        <f t="shared" si="2"/>
         <v>3450</v>
       </c>
       <c r="G35">
@@ -7098,7 +7234,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C36" t="s">
@@ -7110,8 +7246,8 @@
       <c r="E36">
         <v>75</v>
       </c>
-      <c r="F36" s="6">
-        <f>MIN(65000,IF(A36&gt;10,E36*2*(A36-10),E36))</f>
+      <c r="F36" s="5">
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="G36">
@@ -7126,7 +7262,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C37" t="s">
@@ -7138,8 +7274,8 @@
       <c r="E37">
         <v>140</v>
       </c>
-      <c r="F37" s="6">
-        <f>MIN(65000,IF(A37&gt;10,E37*2*(A37-10),E37))</f>
+      <c r="F37" s="5">
+        <f t="shared" si="2"/>
         <v>7000</v>
       </c>
       <c r="G37">
@@ -7154,7 +7290,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C38" t="s">
@@ -7166,8 +7302,8 @@
       <c r="E38">
         <v>70</v>
       </c>
-      <c r="F38" s="6">
-        <f>MIN(65000,IF(A38&gt;10,E38*2*(A38-10),E38))</f>
+      <c r="F38" s="5">
+        <f t="shared" si="2"/>
         <v>3640</v>
       </c>
       <c r="G38">
@@ -7182,7 +7318,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C39" t="s">
@@ -7194,8 +7330,8 @@
       <c r="E39">
         <v>110</v>
       </c>
-      <c r="F39" s="6">
-        <f>MIN(65000,IF(A39&gt;10,E39*2*(A39-10),E39))</f>
+      <c r="F39" s="5">
+        <f t="shared" si="2"/>
         <v>5940</v>
       </c>
       <c r="G39">
@@ -7213,7 +7349,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C40" t="s">
@@ -7225,8 +7361,8 @@
       <c r="E40">
         <v>90</v>
       </c>
-      <c r="F40" s="6">
-        <f>MIN(65000,IF(A40&gt;10,E40*2*(A40-10),E40))</f>
+      <c r="F40" s="5">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
       <c r="G40">
@@ -7244,7 +7380,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C41" t="s">
@@ -7256,8 +7392,8 @@
       <c r="E41">
         <v>90</v>
       </c>
-      <c r="F41" s="6">
-        <f>MIN(65000,IF(A41&gt;10,E41*2*(A41-10),E41))</f>
+      <c r="F41" s="5">
+        <f t="shared" si="2"/>
         <v>5220</v>
       </c>
       <c r="G41">
@@ -7275,7 +7411,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C42" t="s">
@@ -7287,8 +7423,8 @@
       <c r="E42">
         <v>90</v>
       </c>
-      <c r="F42" s="6">
-        <f>MIN(65000,IF(A42&gt;10,E42*2*(A42-10),E42))</f>
+      <c r="F42" s="5">
+        <f t="shared" si="2"/>
         <v>5400</v>
       </c>
       <c r="G42">
@@ -7303,7 +7439,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C43" t="s">
@@ -7315,8 +7451,8 @@
       <c r="E43">
         <v>90</v>
       </c>
-      <c r="F43" s="6">
-        <f>MIN(65000,IF(A43&gt;10,E43*2*(A43-10),E43))</f>
+      <c r="F43" s="5">
+        <f t="shared" si="2"/>
         <v>5580</v>
       </c>
       <c r="G43">
@@ -7331,7 +7467,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2A</v>
       </c>
       <c r="C44" t="s">
@@ -7343,8 +7479,8 @@
       <c r="E44">
         <v>110</v>
       </c>
-      <c r="F44" s="6">
-        <f>MIN(65000,IF(A44&gt;10,E44*2*(A44-10),E44))</f>
+      <c r="F44" s="5">
+        <f t="shared" si="2"/>
         <v>7040</v>
       </c>
       <c r="G44">
@@ -7359,7 +7495,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2B</v>
       </c>
       <c r="C45" t="s">
@@ -7371,8 +7507,8 @@
       <c r="E45">
         <v>110</v>
       </c>
-      <c r="F45" s="6">
-        <f>MIN(65000,IF(A45&gt;10,E45*2*(A45-10),E45))</f>
+      <c r="F45" s="5">
+        <f t="shared" si="2"/>
         <v>7260</v>
       </c>
       <c r="G45">
@@ -7390,7 +7526,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2C</v>
       </c>
       <c r="C46" t="s">
@@ -7402,8 +7538,8 @@
       <c r="E46">
         <v>160</v>
       </c>
-      <c r="F46" s="6">
-        <f>MIN(65000,IF(A46&gt;10,E46*2*(A46-10),E46))</f>
+      <c r="F46" s="5">
+        <f t="shared" si="2"/>
         <v>10880</v>
       </c>
       <c r="G46">
@@ -7418,7 +7554,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2D</v>
       </c>
       <c r="C47" t="s">
@@ -7430,8 +7566,8 @@
       <c r="E47">
         <v>110</v>
       </c>
-      <c r="F47" s="6">
-        <f>MIN(65000,IF(A47&gt;10,E47*2*(A47-10),E47))</f>
+      <c r="F47" s="5">
+        <f t="shared" si="2"/>
         <v>7700</v>
       </c>
       <c r="G47">
@@ -7446,7 +7582,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2E</v>
       </c>
       <c r="C48" t="s">
@@ -7458,8 +7594,8 @@
       <c r="E48">
         <v>140</v>
       </c>
-      <c r="F48" s="6">
-        <f>MIN(65000,IF(A48&gt;10,E48*2*(A48-10),E48))</f>
+      <c r="F48" s="5">
+        <f t="shared" si="2"/>
         <v>10080</v>
       </c>
       <c r="G48">
@@ -7477,7 +7613,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2F</v>
       </c>
       <c r="C49" t="s">
@@ -7489,8 +7625,8 @@
       <c r="E49">
         <v>170</v>
       </c>
-      <c r="F49" s="6">
-        <f>MIN(65000,IF(A49&gt;10,E49*2*(A49-10),E49))</f>
+      <c r="F49" s="5">
+        <f t="shared" si="2"/>
         <v>12580</v>
       </c>
       <c r="G49">
@@ -7508,7 +7644,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C50" t="s">
@@ -7520,8 +7656,8 @@
       <c r="E50">
         <v>170</v>
       </c>
-      <c r="F50" s="6">
-        <f>MIN(65000,IF(A50&gt;10,E50*2*(A50-10),E50))</f>
+      <c r="F50" s="5">
+        <f t="shared" si="2"/>
         <v>12920</v>
       </c>
       <c r="G50">
@@ -7536,7 +7672,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C51" t="s">
@@ -7548,8 +7684,8 @@
       <c r="E51">
         <v>110</v>
       </c>
-      <c r="F51" s="6">
-        <f>MIN(65000,IF(A51&gt;10,E51*2*(A51-10),E51))</f>
+      <c r="F51" s="5">
+        <f t="shared" si="2"/>
         <v>8580</v>
       </c>
       <c r="G51">
@@ -7567,7 +7703,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C52" t="s">
@@ -7579,8 +7715,8 @@
       <c r="E52">
         <v>110</v>
       </c>
-      <c r="F52" s="6">
-        <f>MIN(65000,IF(A52&gt;10,E52*2*(A52-10),E52))</f>
+      <c r="F52" s="5">
+        <f t="shared" si="2"/>
         <v>8800</v>
       </c>
       <c r="G52">
@@ -7598,7 +7734,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C53" t="s">
@@ -7610,8 +7746,8 @@
       <c r="E53">
         <v>110</v>
       </c>
-      <c r="F53" s="6">
-        <f>MIN(65000,IF(A53&gt;10,E53*2*(A53-10),E53))</f>
+      <c r="F53" s="5">
+        <f t="shared" si="2"/>
         <v>9020</v>
       </c>
       <c r="G53">
@@ -7626,7 +7762,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C54" t="s">
@@ -7638,8 +7774,8 @@
       <c r="E54">
         <v>110</v>
       </c>
-      <c r="F54" s="6">
-        <f>MIN(65000,IF(A54&gt;10,E54*2*(A54-10),E54))</f>
+      <c r="F54" s="5">
+        <f t="shared" si="2"/>
         <v>9240</v>
       </c>
       <c r="G54">
@@ -7657,7 +7793,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C55" t="s">
@@ -7669,8 +7805,8 @@
       <c r="E55">
         <v>110</v>
       </c>
-      <c r="F55" s="6">
-        <f>MIN(65000,IF(A55&gt;10,E55*2*(A55-10),E55))</f>
+      <c r="F55" s="5">
+        <f t="shared" si="2"/>
         <v>9460</v>
       </c>
       <c r="G55">
@@ -7685,7 +7821,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C56" t="s">
@@ -7697,8 +7833,8 @@
       <c r="E56">
         <v>200</v>
       </c>
-      <c r="F56" s="6">
-        <f>MIN(65000,IF(A56&gt;10,E56*2*(A56-10),E56))</f>
+      <c r="F56" s="5">
+        <f t="shared" si="2"/>
         <v>17600</v>
       </c>
       <c r="G56">
@@ -7716,7 +7852,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C57" t="s">
@@ -7728,8 +7864,8 @@
       <c r="E57">
         <v>240</v>
       </c>
-      <c r="F57" s="6">
-        <f>MIN(65000,IF(A57&gt;10,E57*2*(A57-10),E57))</f>
+      <c r="F57" s="5">
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
       <c r="G57">
@@ -7747,7 +7883,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C58" t="s">
@@ -7759,8 +7895,8 @@
       <c r="E58">
         <v>240</v>
       </c>
-      <c r="F58" s="6">
-        <f>MIN(65000,IF(A58&gt;10,E58*2*(A58-10),E58))</f>
+      <c r="F58" s="5">
+        <f t="shared" si="2"/>
         <v>22080</v>
       </c>
       <c r="G58">
@@ -7775,7 +7911,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C59" t="s">
@@ -7787,8 +7923,8 @@
       <c r="E59">
         <v>400</v>
       </c>
-      <c r="F59" s="6">
-        <f>MIN(65000,IF(A59&gt;10,E59*2*(A59-10),E59))</f>
+      <c r="F59" s="5">
+        <f t="shared" si="2"/>
         <v>37600</v>
       </c>
       <c r="G59">
@@ -7806,7 +7942,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3A</v>
       </c>
       <c r="C60" t="s">
@@ -7818,8 +7954,8 @@
       <c r="E60">
         <v>120</v>
       </c>
-      <c r="F60" s="6">
-        <f>MIN(65000,IF(A60&gt;10,E60*2*(A60-10),E60))</f>
+      <c r="F60" s="5">
+        <f t="shared" si="2"/>
         <v>11520</v>
       </c>
       <c r="G60">
@@ -7837,7 +7973,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3B</v>
       </c>
       <c r="C61" t="s">
@@ -7849,8 +7985,8 @@
       <c r="E61">
         <v>120</v>
       </c>
-      <c r="F61" s="6">
-        <f>MIN(65000,IF(A61&gt;10,E61*2*(A61-10),E61))</f>
+      <c r="F61" s="5">
+        <f t="shared" si="2"/>
         <v>11760</v>
       </c>
       <c r="G61">
@@ -7865,7 +8001,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3C</v>
       </c>
       <c r="C62" t="s">
@@ -7877,8 +8013,8 @@
       <c r="E62">
         <v>120</v>
       </c>
-      <c r="F62" s="6">
-        <f>MIN(65000,IF(A62&gt;10,E62*2*(A62-10),E62))</f>
+      <c r="F62" s="5">
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
       <c r="G62">
@@ -7896,7 +8032,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3D</v>
       </c>
       <c r="C63" t="s">
@@ -7908,8 +8044,8 @@
       <c r="E63">
         <v>120</v>
       </c>
-      <c r="F63" s="6">
-        <f>MIN(65000,IF(A63&gt;10,E63*2*(A63-10),E63))</f>
+      <c r="F63" s="5">
+        <f t="shared" si="2"/>
         <v>12240</v>
       </c>
       <c r="G63">
@@ -7927,7 +8063,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3E</v>
       </c>
       <c r="C64" t="s">
@@ -7939,8 +8075,8 @@
       <c r="E64">
         <v>120</v>
       </c>
-      <c r="F64" s="6">
-        <f>MIN(65000,IF(A64&gt;10,E64*2*(A64-10),E64))</f>
+      <c r="F64" s="5">
+        <f t="shared" si="2"/>
         <v>12480</v>
       </c>
       <c r="G64">
@@ -7958,7 +8094,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
       <c r="C65" t="s">
@@ -7970,8 +8106,8 @@
       <c r="E65">
         <v>120</v>
       </c>
-      <c r="F65" s="6">
-        <f>MIN(65000,IF(A65&gt;10,E65*2*(A65-10),E65))</f>
+      <c r="F65" s="5">
+        <f t="shared" si="2"/>
         <v>12720</v>
       </c>
       <c r="G65">
@@ -7986,7 +8122,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C66" t="s">
@@ -7998,8 +8134,8 @@
       <c r="E66">
         <v>120</v>
       </c>
-      <c r="F66" s="6">
-        <f>MIN(65000,IF(A66&gt;10,E66*2*(A66-10),E66))</f>
+      <c r="F66" s="5">
+        <f t="shared" ref="F66:F97" si="3">MIN(65000,IF(A66&gt;10,E66*2*(A66-10),E66))</f>
         <v>12960</v>
       </c>
       <c r="G66">
@@ -8017,7 +8153,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67" si="1">DEC2HEX(A67,2)</f>
+        <f t="shared" ref="B67" si="4">DEC2HEX(A67,2)</f>
         <v>41</v>
       </c>
       <c r="C67" t="s">
@@ -8029,8 +8165,8 @@
       <c r="E67">
         <v>300</v>
       </c>
-      <c r="F67" s="6">
-        <f>MIN(65000,IF(A67&gt;10,E67*2*(A67-10),E67))</f>
+      <c r="F67" s="5">
+        <f t="shared" si="3"/>
         <v>33000</v>
       </c>
       <c r="G67">
@@ -8050,4 +8186,383 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ascendancy/_ASCEND00.xlsx
+++ b/Ascendancy/_ASCEND00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="PlanetItems" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>Factory</t>
   </si>
@@ -761,6 +761,36 @@
   </si>
   <si>
     <t>data\17np.shp</t>
+  </si>
+  <si>
+    <t>enum MACRO_ASCEND_PI_FLAG</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>ASCEND_PI_FLAG_BUILD_ON_BLACK = 0x1,</t>
+  </si>
+  <si>
+    <t>ASCEND_PI_FLAG_MASK1 = 0x2,</t>
+  </si>
+  <si>
+    <t>ASCEND_PI_FLAG_ATTACK = 0x4,</t>
+  </si>
+  <si>
+    <t>ASCEND_PI_FLAG_DEFENSE = 0x8,</t>
+  </si>
+  <si>
+    <t>ASCEND_PI_FLAG_MASK4 = 0x10,</t>
+  </si>
+  <si>
+    <t>ASCEND_PI_FLAG_PROJECT = 0x20,</t>
+  </si>
+  <si>
+    <t>ASCEND_PI_FLAG_MASK6 = 0x40,</t>
+  </si>
+  <si>
+    <t>};</t>
   </si>
 </sst>
 </file>
@@ -1132,11 +1162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1144,10 +1174,10 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="8" customWidth="1"/>
+    <col min="4" max="14" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D1" s="3" t="s">
         <v>125</v>
       </c>
@@ -1173,7 +1203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1208,8 +1238,11 @@
       <c r="K2">
         <v>255</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1244,8 +1277,11 @@
       <c r="K3">
         <v>255</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1280,8 +1316,14 @@
       <c r="K4">
         <v>255</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1316,8 +1358,14 @@
       <c r="K5">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1352,8 +1400,14 @@
       <c r="K6">
         <v>255</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1391,8 +1445,14 @@
       <c r="L7">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1427,8 +1487,14 @@
       <c r="K8">
         <v>255</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1463,8 +1529,14 @@
       <c r="K9">
         <v>255</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1499,8 +1571,14 @@
       <c r="K10">
         <v>255</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1535,8 +1613,11 @@
       <c r="K11">
         <v>255</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1572,7 +1653,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1608,7 +1689,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1644,7 +1725,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1680,7 +1761,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2660,7 +2741,7 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -8135,7 +8216,7 @@
         <v>120</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" ref="F66:F97" si="3">MIN(65000,IF(A66&gt;10,E66*2*(A66-10),E66))</f>
+        <f t="shared" ref="F66:F67" si="3">MIN(65000,IF(A66&gt;10,E66*2*(A66-10),E66))</f>
         <v>12960</v>
       </c>
       <c r="G66">
@@ -8192,9 +8273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Ascendancy/_ASCEND00.xlsx
+++ b/Ascendancy/_ASCEND00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PlanetItems" sheetId="1" r:id="rId1"/>
@@ -1164,9 +1164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8271,373 +8271,556 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="str">
+        <f>DEC2HEX(A1,2)</f>
+        <v>00</v>
+      </c>
+      <c r="C1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B45" si="0">DEC2HEX(A2,2)</f>
+        <v>01</v>
+      </c>
+      <c r="C2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="C3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="C4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="C5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>05</v>
+      </c>
+      <c r="C6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>06</v>
+      </c>
+      <c r="C7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="C8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
+      <c r="C10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>0A</v>
+      </c>
+      <c r="C11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>0B</v>
+      </c>
+      <c r="C12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>0C</v>
+      </c>
+      <c r="C13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="C14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>0E</v>
+      </c>
+      <c r="C15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>0F</v>
+      </c>
+      <c r="C16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
+      <c r="C27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>1B</v>
+      </c>
+      <c r="C28" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+      <c r="C29" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>1D</v>
+      </c>
+      <c r="C30" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>1E</v>
+      </c>
+      <c r="C31" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+      <c r="C32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="C43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>2B</v>
+      </c>
+      <c r="C44" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>2C</v>
+      </c>
+      <c r="C45" t="s">
         <v>247</v>
       </c>
     </row>

--- a/Ascendancy/_ASCEND00.xlsx
+++ b/Ascendancy/_ASCEND00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="24825" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PlanetItems" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Вячеслав Ч</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Cat can be the following values:
+Weapon          0
+Shield          1
+Drive           2
+Scanner         3
+Generator       4
+Special         5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>For weapons, damage.  For shields, strength.  For scanners, range per
+turn.  For drives, the maximum distance that can be travelled, in
+sugar cube units.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
@@ -797,7 +842,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -824,6 +869,19 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2737,12 +2795,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6299,6 +6357,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8273,7 +8332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
